--- a/entrega 3/simulación.xlsx
+++ b/entrega 3/simulación.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Desktop\Simio\modelo conceptual mejorado\entrega 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\simio\entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="37">
   <si>
     <t>Input@KoalaPesajeEntrada</t>
   </si>
@@ -130,14 +130,20 @@
     <t>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</t>
   </si>
   <si>
-    <t>Distancia</t>
+    <t>Distancia Común</t>
+  </si>
+  <si>
+    <t>Distancia Extra</t>
+  </si>
+  <si>
+    <t>Distancia Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +153,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,11 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,7 +280,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -558,21 +582,21 @@
       <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -628,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>43</v>
       </c>
@@ -669,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
@@ -710,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59</v>
       </c>
@@ -751,7 +775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>69</v>
       </c>
@@ -792,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>23</v>
       </c>
@@ -833,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -874,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -915,7 +939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>52</v>
       </c>
@@ -956,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58</v>
       </c>
@@ -997,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>66</v>
       </c>
@@ -1038,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>68</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>70</v>
       </c>
@@ -1120,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1161,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>32</v>
       </c>
@@ -1202,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1243,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1284,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1325,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57</v>
       </c>
@@ -1366,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -1410,7 +1434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>76</v>
       </c>
@@ -1451,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>77</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>80</v>
       </c>
@@ -1533,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1574,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1656,7 +1680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1697,7 +1721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1779,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1820,7 +1844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>33</v>
       </c>
@@ -1861,7 +1885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>34</v>
       </c>
@@ -1902,7 +1926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -1943,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44</v>
       </c>
@@ -1984,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>36</v>
       </c>
@@ -2025,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>38</v>
       </c>
@@ -2066,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>56</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>40</v>
       </c>
@@ -2148,7 +2172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>65</v>
       </c>
@@ -2189,7 +2213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
@@ -2230,7 +2254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>75</v>
       </c>
@@ -2271,7 +2295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
@@ -2353,7 +2377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -2394,7 +2418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>29</v>
       </c>
@@ -2435,7 +2459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2476,7 +2500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>39</v>
       </c>
@@ -2517,7 +2541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2558,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2599,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>64</v>
       </c>
@@ -2640,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>74</v>
       </c>
@@ -2681,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>78</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>79</v>
       </c>
@@ -2763,7 +2787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>82</v>
       </c>
@@ -2804,7 +2828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>83</v>
       </c>
@@ -2845,7 +2869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>86</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
@@ -2927,7 +2951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95</v>
       </c>
@@ -2968,7 +2992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>96</v>
       </c>
@@ -3009,7 +3033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>98</v>
       </c>
@@ -3050,7 +3074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3091,7 +3115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -3132,7 +3156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>53</v>
       </c>
@@ -3173,7 +3197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -3214,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>24</v>
       </c>
@@ -3255,7 +3279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>46</v>
       </c>
@@ -3296,7 +3320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>55</v>
       </c>
@@ -3337,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>48</v>
       </c>
@@ -3378,7 +3402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>63</v>
       </c>
@@ -3419,7 +3443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>73</v>
       </c>
@@ -3460,7 +3484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>85</v>
       </c>
@@ -3474,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F102" si="9">E71+1</f>
+        <f t="shared" ref="F71:F100" si="9">E71+1</f>
         <v>10</v>
       </c>
       <c r="H71" t="s">
@@ -3501,7 +3525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>60</v>
       </c>
@@ -3542,7 +3566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>89</v>
       </c>
@@ -3583,7 +3607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>94</v>
       </c>
@@ -3624,7 +3648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>61</v>
       </c>
@@ -3665,7 +3689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>62</v>
       </c>
@@ -3706,7 +3730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>67</v>
       </c>
@@ -3747,7 +3771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -3788,7 +3812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>84</v>
       </c>
@@ -3829,7 +3853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>87</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8</v>
       </c>
@@ -3911,7 +3935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12</v>
       </c>
@@ -3952,7 +3976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13</v>
       </c>
@@ -3993,7 +4017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>19</v>
       </c>
@@ -4034,7 +4058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>31</v>
       </c>
@@ -4075,7 +4099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>41</v>
       </c>
@@ -4116,7 +4140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>54</v>
       </c>
@@ -4157,7 +4181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>81</v>
       </c>
@@ -4198,7 +4222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>93</v>
       </c>
@@ -4239,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
@@ -4280,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -4321,7 +4345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>97</v>
       </c>
@@ -4362,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
@@ -4403,7 +4427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21</v>
       </c>
@@ -4444,7 +4468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22</v>
       </c>
@@ -4485,7 +4509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>99</v>
       </c>
@@ -4526,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>71</v>
       </c>
@@ -4567,7 +4591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>72</v>
       </c>
@@ -4608,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>91</v>
       </c>
@@ -4649,7 +4673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4690,7 +4714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>92</v>
       </c>
@@ -4748,12 +4772,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>3</v>
       </c>
@@ -4845,7 +4869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5029,7 +5053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>CONCATENATE(A2,A1,A3)</f>
         <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]</v>
@@ -5151,7 +5175,7 @@
         <v>DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5243,7 +5267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>CONCATENATE(A4,A5)</f>
         <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+</v>
@@ -5364,13 +5388,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT(A6:AD6)</f>
         <v>DiasDeNoTrabajoAserraderos[3,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[4,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[7,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[10,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[11,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[15,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[30,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[33,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[34,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[35,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[36,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[38,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[40,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[42,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[45,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[47,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[49,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[50,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[53,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[55,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[60,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[61,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[62,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[67,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[84,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[87,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[88,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[97,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[99,DateTime.DayOfWeek(Run.TimeNow)]+DiasDeNoTrabajoAserraderos[100,DateTime.DayOfWeek(Run.TimeNow)]</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -5379,22 +5403,22 @@
         <v>ABCD</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>33</v>
       </c>
@@ -5406,2942 +5430,2950 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F101" sqref="F2:H101"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <f>B2+C2</f>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <f>B3+C3</f>
         <v>11</v>
       </c>
-      <c r="G2">
-        <f>B2+D2</f>
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <f>B2+E2</f>
+      <c r="G3" s="4">
+        <f>B3+D3</f>
+        <v>8</v>
+      </c>
+      <c r="H3" s="4">
+        <f>B3+E3</f>
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">B3+C3</f>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F67" si="0">B4+C4</f>
         <v>9</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="1">B3+D3</f>
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="2">B3+E3</f>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G67" si="1">B4+D4</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H67" si="2">B4+E4</f>
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H4">
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H5">
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H6">
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H7">
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H8">
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H9" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H11">
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H12">
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H13">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H14">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H15">
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H17">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H18">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H19">
+      <c r="H20" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G20">
+      <c r="G21" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H20">
+      <c r="H21" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G21">
+      <c r="G22" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H21">
+      <c r="H22" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H22">
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H23">
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H24">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H26">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H27">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H28" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H28">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H29" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H29">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H30" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H30">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H31" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H31">
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G32">
+      <c r="G33" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H32">
+      <c r="H33" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H33">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H34" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H34">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H35" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H35">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H36">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H37" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H37">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H38">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H39" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H39">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H40" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H40">
+      <c r="G41" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H41" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G41">
+      <c r="G42" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H41">
+      <c r="H42" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H42">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H43" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H43">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H44" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H44">
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H45" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H45">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H46" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H46">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H47" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G47">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G48" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H47">
+      <c r="H48" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>6</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H48">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H49" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>6</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H49">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H50" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H50">
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H51" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H51">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H52">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H53" s="4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H53">
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H54" s="4">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H54">
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H55" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G55">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G56" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H55">
+      <c r="H56" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>6</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H56">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H57" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H57">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H58" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>6</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H58">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H59" s="4">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="H59">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G60" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H60" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H60">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G61" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H61" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H61">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H62" s="4">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G62">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G63" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H62">
+      <c r="H63" s="4">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G63">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G64" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H63">
+      <c r="H64" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-      <c r="E64">
-        <v>7</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H64">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H65" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65">
-        <v>7</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H65">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="H66" s="4">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66">
-        <v>7</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H66">
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H67" s="4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <v>7</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F101" si="3">B67+C67</f>
-        <v>3</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G101" si="4">B67+D67</f>
-        <v>4</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H101" si="5">B67+E67</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" ref="F68:F102" si="3">B68+C68</f>
+        <v>3</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" ref="G68:G102" si="4">B68+D68</f>
+        <v>4</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" ref="H68:H102" si="5">B68+E68</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-      <c r="F68">
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G68">
+      <c r="G69" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H68">
+      <c r="H69" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>5</v>
-      </c>
-      <c r="E69">
-        <v>4</v>
-      </c>
-      <c r="F69">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="G69">
+      <c r="G70" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H69">
+      <c r="H70" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <v>3</v>
-      </c>
-      <c r="F70">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G70">
+      <c r="G71" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H70">
+      <c r="H71" s="4">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G71">
+      <c r="G72" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H71">
+      <c r="H72" s="4">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>6</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72">
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G72">
+      <c r="G73" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H72">
+      <c r="H73" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>6</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73">
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G73">
+      <c r="G74" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H73">
+      <c r="H74" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>5</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74">
-        <v>7</v>
-      </c>
-      <c r="F74">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G74">
+      <c r="G75" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H74">
+      <c r="H75" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75">
-        <v>7</v>
-      </c>
-      <c r="F75">
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G75">
+      <c r="G76" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H75">
+      <c r="H76" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>7</v>
-      </c>
-      <c r="F76">
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>7</v>
+      </c>
+      <c r="F77" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G76">
+      <c r="G77" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H76">
+      <c r="H77" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77">
-        <v>7</v>
-      </c>
-      <c r="F77">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G77">
+      <c r="G78" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H77">
+      <c r="H78" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>7</v>
-      </c>
-      <c r="F78">
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G78">
+      <c r="G79" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="H78">
+      <c r="H79" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>5</v>
-      </c>
-      <c r="E79">
-        <v>4</v>
-      </c>
-      <c r="F79">
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G79">
+      <c r="G80" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H79">
+      <c r="H80" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>2</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
-      </c>
-      <c r="F80">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81" s="4">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="G80">
+      <c r="G81" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H80">
+      <c r="H81" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>6</v>
-      </c>
-      <c r="E81">
-        <v>3</v>
-      </c>
-      <c r="F81">
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G81">
+      <c r="G82" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H81">
+      <c r="H82" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-      <c r="E82">
-        <v>3</v>
-      </c>
-      <c r="F82">
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G82">
+      <c r="G83" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H82">
+      <c r="H83" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83">
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G83">
+      <c r="G84" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H83">
+      <c r="H84" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>5</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>6</v>
-      </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-      <c r="F84">
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G84">
+      <c r="G85" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H84">
+      <c r="H85" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>6</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>7</v>
-      </c>
-      <c r="F85">
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>7</v>
+      </c>
+      <c r="F86" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G85">
+      <c r="G86" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H85">
+      <c r="H86" s="4">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>5</v>
-      </c>
-      <c r="C86">
-        <v>2</v>
-      </c>
-      <c r="D86">
-        <v>3</v>
-      </c>
-      <c r="E86">
-        <v>7</v>
-      </c>
-      <c r="F86">
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G86">
+      <c r="G87" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H86">
+      <c r="H87" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="E87">
-        <v>7</v>
-      </c>
-      <c r="F87">
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G87">
+      <c r="G88" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H87">
+      <c r="H88" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="E88">
-        <v>7</v>
-      </c>
-      <c r="F88">
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G88">
+      <c r="G89" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H88">
+      <c r="H89" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89">
-        <v>4</v>
-      </c>
-      <c r="F89">
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G89">
+      <c r="G90" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H89">
+      <c r="H90" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90">
-        <v>4</v>
-      </c>
-      <c r="F90">
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" s="4">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G90">
+      <c r="G91" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H90">
+      <c r="H91" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>6</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91">
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G91">
+      <c r="G92" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H91">
+      <c r="H92" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
-        <v>6</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92">
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G92">
+      <c r="G93" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H92">
+      <c r="H93" s="4">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>6</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93">
+      <c r="B94">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G93">
+      <c r="G94" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="H93">
+      <c r="H94" s="4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>5</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94">
-        <v>7</v>
-      </c>
-      <c r="F94">
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+      <c r="F95" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G94">
+      <c r="G95" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H94">
+      <c r="H95" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>7</v>
-      </c>
-      <c r="F95">
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96" s="4">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G95">
+      <c r="G96" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="H95">
+      <c r="H96" s="4">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96">
-        <v>7</v>
-      </c>
-      <c r="F96">
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>7</v>
+      </c>
+      <c r="F97" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G96">
+      <c r="G97" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H96">
+      <c r="H97" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97">
-        <v>7</v>
-      </c>
-      <c r="F97">
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G97">
+      <c r="G98" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H97">
+      <c r="H98" s="4">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>4</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>4</v>
-      </c>
-      <c r="F98">
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G98">
+      <c r="G99" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H98">
+      <c r="H99" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99">
-        <v>4</v>
-      </c>
-      <c r="F99">
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" s="4">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G99">
+      <c r="G100" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H99">
+      <c r="H100" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>6</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100">
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G100">
+      <c r="G101" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H100">
+      <c r="H101" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>6</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
-      <c r="F101">
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102" s="4">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G101">
+      <c r="G102" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H101">
+      <c r="H102" s="4">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/entrega 3/simulación.xlsx
+++ b/entrega 3/simulación.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\simio\entrega 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\entrega 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja2!$A$2:$H$2</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5432,8 +5436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,15 +5522,15 @@
         <v>5</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F67" si="0">B4+C4</f>
+        <f>B4+C4</f>
         <v>9</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G67" si="1">B4+D4</f>
+        <f>B4+D4</f>
         <v>6</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H67" si="2">B4+E4</f>
+        <f>B4+E4</f>
         <v>10</v>
       </c>
     </row>
@@ -5547,15 +5551,15 @@
         <v>5</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
+        <f>B5+C5</f>
         <v>9</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <f>B5+D5</f>
         <v>6</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
+        <f>B5+E5</f>
         <v>10</v>
       </c>
     </row>
@@ -5576,15 +5580,15 @@
         <v>3</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="0"/>
+        <f>B6+C6</f>
         <v>10</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f>B6+D6</f>
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
+        <f>B6+E6</f>
         <v>7</v>
       </c>
     </row>
@@ -5605,15 +5609,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="0"/>
+        <f>B7+C7</f>
         <v>10</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f>B7+D7</f>
         <v>6</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f>B7+E7</f>
         <v>7</v>
       </c>
     </row>
@@ -5634,15 +5638,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
+        <f>B8+C8</f>
         <v>9</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
+        <f>B8+D8</f>
         <v>8</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
+        <f>B8+E8</f>
         <v>5</v>
       </c>
     </row>
@@ -5663,15 +5667,15 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
+        <f>B9+C9</f>
         <v>9</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f>B9+D9</f>
         <v>8</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
+        <f>B9+E9</f>
         <v>5</v>
       </c>
     </row>
@@ -5692,15 +5696,15 @@
         <v>1</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
+        <f>B10+C10</f>
         <v>10</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f>B10+D10</f>
         <v>9</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f>B10+E10</f>
         <v>6</v>
       </c>
     </row>
@@ -5721,15 +5725,15 @@
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
+        <f>B11+C11</f>
         <v>11</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f>B11+D11</f>
         <v>10</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f>B11+E11</f>
         <v>7</v>
       </c>
     </row>
@@ -5750,15 +5754,15 @@
         <v>5</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f>B12+C12</f>
         <v>10</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f>B12+D12</f>
         <v>7</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f>B12+E12</f>
         <v>11</v>
       </c>
     </row>
@@ -5779,15 +5783,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
+        <f>B13+C13</f>
         <v>10</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f>B13+D13</f>
         <v>7</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
+        <f>B13+E13</f>
         <v>11</v>
       </c>
     </row>
@@ -5808,15 +5812,15 @@
         <v>5</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
+        <f>B14+C14</f>
         <v>8</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f>B14+D14</f>
         <v>5</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f>B14+E14</f>
         <v>9</v>
       </c>
     </row>
@@ -5837,15 +5841,15 @@
         <v>5</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
+        <f>B15+C15</f>
         <v>8</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f>B15+D15</f>
         <v>5</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f>B15+E15</f>
         <v>9</v>
       </c>
     </row>
@@ -5866,15 +5870,15 @@
         <v>3</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
+        <f>B16+C16</f>
         <v>9</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="1"/>
+        <f>B16+D16</f>
         <v>5</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f>B16+E16</f>
         <v>6</v>
       </c>
     </row>
@@ -5895,15 +5899,15 @@
         <v>3</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
+        <f>B17+C17</f>
         <v>9</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="1"/>
+        <f>B17+D17</f>
         <v>5</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f>B17+E17</f>
         <v>6</v>
       </c>
     </row>
@@ -5924,15 +5928,15 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
+        <f>B18+C18</f>
         <v>8</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="1"/>
+        <f>B18+D18</f>
         <v>7</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="2"/>
+        <f>B18+E18</f>
         <v>4</v>
       </c>
     </row>
@@ -5953,15 +5957,15 @@
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
+        <f>B19+C19</f>
         <v>8</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="1"/>
+        <f>B19+D19</f>
         <v>7</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="2"/>
+        <f>B19+E19</f>
         <v>4</v>
       </c>
     </row>
@@ -5982,15 +5986,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
+        <f>B20+C20</f>
         <v>10</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="1"/>
+        <f>B20+D20</f>
         <v>9</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="2"/>
+        <f>B20+E20</f>
         <v>6</v>
       </c>
     </row>
@@ -6011,15 +6015,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
+        <f>B21+C21</f>
         <v>11</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="1"/>
+        <f>B21+D21</f>
         <v>10</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="2"/>
+        <f>B21+E21</f>
         <v>7</v>
       </c>
     </row>
@@ -6040,15 +6044,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
+        <f>B22+C22</f>
         <v>12</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="1"/>
+        <f>B22+D22</f>
         <v>11</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="2"/>
+        <f>B22+E22</f>
         <v>8</v>
       </c>
     </row>
@@ -6069,15 +6073,15 @@
         <v>5</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
+        <f>B23+C23</f>
         <v>9</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="1"/>
+        <f>B23+D23</f>
         <v>6</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="2"/>
+        <f>B23+E23</f>
         <v>10</v>
       </c>
     </row>
@@ -6098,15 +6102,15 @@
         <v>5</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
+        <f>B24+C24</f>
         <v>9</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="1"/>
+        <f>B24+D24</f>
         <v>6</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="2"/>
+        <f>B24+E24</f>
         <v>10</v>
       </c>
     </row>
@@ -6127,15 +6131,15 @@
         <v>5</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
+        <f>B25+C25</f>
         <v>7</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="1"/>
+        <f>B25+D25</f>
         <v>4</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="2"/>
+        <f>B25+E25</f>
         <v>8</v>
       </c>
     </row>
@@ -6156,15 +6160,15 @@
         <v>5</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="0"/>
+        <f>B26+C26</f>
         <v>7</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="1"/>
+        <f>B26+D26</f>
         <v>4</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="2"/>
+        <f>B26+E26</f>
         <v>8</v>
       </c>
     </row>
@@ -6185,15 +6189,15 @@
         <v>3</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="0"/>
+        <f>B27+C27</f>
         <v>8</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="1"/>
+        <f>B27+D27</f>
         <v>4</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="2"/>
+        <f>B27+E27</f>
         <v>5</v>
       </c>
     </row>
@@ -6214,15 +6218,15 @@
         <v>3</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="0"/>
+        <f>B28+C28</f>
         <v>8</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="1"/>
+        <f>B28+D28</f>
         <v>4</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="2"/>
+        <f>B28+E28</f>
         <v>5</v>
       </c>
     </row>
@@ -6243,15 +6247,15 @@
         <v>1</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="0"/>
+        <f>B29+C29</f>
         <v>7</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="1"/>
+        <f>B29+D29</f>
         <v>6</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="2"/>
+        <f>B29+E29</f>
         <v>3</v>
       </c>
     </row>
@@ -6272,15 +6276,15 @@
         <v>1</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="0"/>
+        <f>B30+C30</f>
         <v>7</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="1"/>
+        <f>B30+D30</f>
         <v>6</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
+        <f>B30+E30</f>
         <v>3</v>
       </c>
     </row>
@@ -6301,15 +6305,15 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="0"/>
+        <f>B31+C31</f>
         <v>8</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="1"/>
+        <f>B31+D31</f>
         <v>7</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="2"/>
+        <f>B31+E31</f>
         <v>4</v>
       </c>
     </row>
@@ -6330,15 +6334,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="0"/>
+        <f>B32+C32</f>
         <v>9</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="1"/>
+        <f>B32+D32</f>
         <v>8</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="2"/>
+        <f>B32+E32</f>
         <v>5</v>
       </c>
     </row>
@@ -6359,15 +6363,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="0"/>
+        <f>B33+C33</f>
         <v>10</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="1"/>
+        <f>B33+D33</f>
         <v>9</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="2"/>
+        <f>B33+E33</f>
         <v>6</v>
       </c>
     </row>
@@ -6388,15 +6392,15 @@
         <v>5</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="0"/>
+        <f>B34+C34</f>
         <v>8</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="1"/>
+        <f>B34+D34</f>
         <v>5</v>
       </c>
       <c r="H34" s="4">
-        <f t="shared" si="2"/>
+        <f>B34+E34</f>
         <v>9</v>
       </c>
     </row>
@@ -6417,15 +6421,15 @@
         <v>5</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="0"/>
+        <f>B35+C35</f>
         <v>7</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="1"/>
+        <f>B35+D35</f>
         <v>4</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="2"/>
+        <f>B35+E35</f>
         <v>8</v>
       </c>
     </row>
@@ -6446,15 +6450,15 @@
         <v>5</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="0"/>
+        <f>B36+C36</f>
         <v>6</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="1"/>
+        <f>B36+D36</f>
         <v>3</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" si="2"/>
+        <f>B36+E36</f>
         <v>7</v>
       </c>
     </row>
@@ -6475,15 +6479,15 @@
         <v>5</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="0"/>
+        <f>B37+C37</f>
         <v>5</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="1"/>
+        <f>B37+D37</f>
         <v>2</v>
       </c>
       <c r="H37" s="4">
-        <f t="shared" si="2"/>
+        <f>B37+E37</f>
         <v>6</v>
       </c>
     </row>
@@ -6504,15 +6508,15 @@
         <v>3</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="0"/>
+        <f>B38+C38</f>
         <v>7</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="1"/>
+        <f>B38+D38</f>
         <v>3</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" si="2"/>
+        <f>B38+E38</f>
         <v>4</v>
       </c>
     </row>
@@ -6533,15 +6537,15 @@
         <v>1</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="0"/>
+        <f>B39+C39</f>
         <v>6</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="1"/>
+        <f>B39+D39</f>
         <v>5</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="2"/>
+        <f>B39+E39</f>
         <v>2</v>
       </c>
     </row>
@@ -6562,15 +6566,15 @@
         <v>1</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="0"/>
+        <f>B40+C40</f>
         <v>8</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="1"/>
+        <f>B40+D40</f>
         <v>7</v>
       </c>
       <c r="H40" s="4">
-        <f t="shared" si="2"/>
+        <f>B40+E40</f>
         <v>4</v>
       </c>
     </row>
@@ -6591,15 +6595,15 @@
         <v>1</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="0"/>
+        <f>B41+C41</f>
         <v>9</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="1"/>
+        <f>B41+D41</f>
         <v>8</v>
       </c>
       <c r="H41" s="4">
-        <f t="shared" si="2"/>
+        <f>B41+E41</f>
         <v>5</v>
       </c>
     </row>
@@ -6620,15 +6624,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="0"/>
+        <f>B42+C42</f>
         <v>10</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="1"/>
+        <f>B42+D42</f>
         <v>9</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" si="2"/>
+        <f>B42+E42</f>
         <v>6</v>
       </c>
     </row>
@@ -6649,15 +6653,15 @@
         <v>5</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="0"/>
+        <f>B43+C43</f>
         <v>8</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="1"/>
+        <f>B43+D43</f>
         <v>5</v>
       </c>
       <c r="H43" s="4">
-        <f t="shared" si="2"/>
+        <f>B43+E43</f>
         <v>9</v>
       </c>
     </row>
@@ -6678,15 +6682,15 @@
         <v>5</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="0"/>
+        <f>B44+C44</f>
         <v>7</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="1"/>
+        <f>B44+D44</f>
         <v>4</v>
       </c>
       <c r="H44" s="4">
-        <f t="shared" si="2"/>
+        <f>B44+E44</f>
         <v>8</v>
       </c>
     </row>
@@ -6707,15 +6711,15 @@
         <v>5</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
+        <f>B45+C45</f>
         <v>6</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="1"/>
+        <f>B45+D45</f>
         <v>3</v>
       </c>
       <c r="H45" s="4">
-        <f t="shared" si="2"/>
+        <f>B45+E45</f>
         <v>7</v>
       </c>
     </row>
@@ -6736,15 +6740,15 @@
         <v>1</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="0"/>
+        <f>B46+C46</f>
         <v>6</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="1"/>
+        <f>B46+D46</f>
         <v>7</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" si="2"/>
+        <f>B46+E46</f>
         <v>3</v>
       </c>
     </row>
@@ -6765,15 +6769,15 @@
         <v>1</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="0"/>
+        <f>B47+C47</f>
         <v>7</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="1"/>
+        <f>B47+D47</f>
         <v>8</v>
       </c>
       <c r="H47" s="4">
-        <f t="shared" si="2"/>
+        <f>B47+E47</f>
         <v>4</v>
       </c>
     </row>
@@ -6794,15 +6798,15 @@
         <v>1</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="0"/>
+        <f>B48+C48</f>
         <v>8</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="1"/>
+        <f>B48+D48</f>
         <v>9</v>
       </c>
       <c r="H48" s="4">
-        <f t="shared" si="2"/>
+        <f>B48+E48</f>
         <v>5</v>
       </c>
     </row>
@@ -6823,15 +6827,15 @@
         <v>6</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="0"/>
+        <f>B49+C49</f>
         <v>7</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="1"/>
+        <f>B49+D49</f>
         <v>6</v>
       </c>
       <c r="H49" s="4">
-        <f t="shared" si="2"/>
+        <f>B49+E49</f>
         <v>10</v>
       </c>
     </row>
@@ -6852,15 +6856,15 @@
         <v>6</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="0"/>
+        <f>B50+C50</f>
         <v>6</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="1"/>
+        <f>B50+D50</f>
         <v>5</v>
       </c>
       <c r="H50" s="4">
-        <f t="shared" si="2"/>
+        <f>B50+E50</f>
         <v>9</v>
       </c>
     </row>
@@ -6881,15 +6885,15 @@
         <v>6</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="0"/>
+        <f>B51+C51</f>
         <v>5</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="1"/>
+        <f>B51+D51</f>
         <v>4</v>
       </c>
       <c r="H51" s="4">
-        <f t="shared" si="2"/>
+        <f>B51+E51</f>
         <v>8</v>
       </c>
     </row>
@@ -6910,15 +6914,15 @@
         <v>6</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="0"/>
+        <f>B52+C52</f>
         <v>4</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="1"/>
+        <f>B52+D52</f>
         <v>3</v>
       </c>
       <c r="H52" s="4">
-        <f t="shared" si="2"/>
+        <f>B52+E52</f>
         <v>7</v>
       </c>
     </row>
@@ -6939,15 +6943,15 @@
         <v>1</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="0"/>
+        <f>B53+C53</f>
         <v>5</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="1"/>
+        <f>B53+D53</f>
         <v>6</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" si="2"/>
+        <f>B53+E53</f>
         <v>2</v>
       </c>
     </row>
@@ -6968,15 +6972,15 @@
         <v>1</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="0"/>
+        <f>B54+C54</f>
         <v>6</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="1"/>
+        <f>B54+D54</f>
         <v>7</v>
       </c>
       <c r="H54" s="4">
-        <f t="shared" si="2"/>
+        <f>B54+E54</f>
         <v>3</v>
       </c>
     </row>
@@ -6997,15 +7001,15 @@
         <v>1</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="0"/>
+        <f>B55+C55</f>
         <v>7</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="1"/>
+        <f>B55+D55</f>
         <v>8</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="2"/>
+        <f>B55+E55</f>
         <v>4</v>
       </c>
     </row>
@@ -7026,15 +7030,15 @@
         <v>1</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="0"/>
+        <f>B56+C56</f>
         <v>8</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="1"/>
+        <f>B56+D56</f>
         <v>9</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="2"/>
+        <f>B56+E56</f>
         <v>5</v>
       </c>
     </row>
@@ -7055,15 +7059,15 @@
         <v>6</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="0"/>
+        <f>B57+C57</f>
         <v>7</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="1"/>
+        <f>B57+D57</f>
         <v>6</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" si="2"/>
+        <f>B57+E57</f>
         <v>10</v>
       </c>
     </row>
@@ -7084,15 +7088,15 @@
         <v>6</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="0"/>
+        <f>B58+C58</f>
         <v>6</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="1"/>
+        <f>B58+D58</f>
         <v>5</v>
       </c>
       <c r="H58" s="4">
-        <f t="shared" si="2"/>
+        <f>B58+E58</f>
         <v>9</v>
       </c>
     </row>
@@ -7113,15 +7117,15 @@
         <v>6</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="0"/>
+        <f>B59+C59</f>
         <v>5</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="1"/>
+        <f>B59+D59</f>
         <v>4</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="2"/>
+        <f>B59+E59</f>
         <v>8</v>
       </c>
     </row>
@@ -7142,15 +7146,15 @@
         <v>6</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="0"/>
+        <f>B60+C60</f>
         <v>4</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="1"/>
+        <f>B60+D60</f>
         <v>3</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="2"/>
+        <f>B60+E60</f>
         <v>7</v>
       </c>
     </row>
@@ -7171,15 +7175,15 @@
         <v>3</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="0"/>
+        <f>B61+C61</f>
         <v>3</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="1"/>
+        <f>B61+D61</f>
         <v>7</v>
       </c>
       <c r="H61" s="4">
-        <f t="shared" si="2"/>
+        <f>B61+E61</f>
         <v>4</v>
       </c>
     </row>
@@ -7200,15 +7204,15 @@
         <v>3</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="0"/>
+        <f>B62+C62</f>
         <v>4</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="1"/>
+        <f>B62+D62</f>
         <v>8</v>
       </c>
       <c r="H62" s="4">
-        <f t="shared" si="2"/>
+        <f>B62+E62</f>
         <v>5</v>
       </c>
     </row>
@@ -7229,15 +7233,15 @@
         <v>3</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="0"/>
+        <f>B63+C63</f>
         <v>5</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="1"/>
+        <f>B63+D63</f>
         <v>9</v>
       </c>
       <c r="H63" s="4">
-        <f t="shared" si="2"/>
+        <f>B63+E63</f>
         <v>6</v>
       </c>
     </row>
@@ -7258,15 +7262,15 @@
         <v>3</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="0"/>
+        <f>B64+C64</f>
         <v>6</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="1"/>
+        <f>B64+D64</f>
         <v>10</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="2"/>
+        <f>B64+E64</f>
         <v>7</v>
       </c>
     </row>
@@ -7287,15 +7291,15 @@
         <v>7</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="0"/>
+        <f>B65+C65</f>
         <v>7</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="1"/>
+        <f>B65+D65</f>
         <v>8</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="2"/>
+        <f>B65+E65</f>
         <v>12</v>
       </c>
     </row>
@@ -7316,15 +7320,15 @@
         <v>7</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="0"/>
+        <f>B66+C66</f>
         <v>6</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="1"/>
+        <f>B66+D66</f>
         <v>7</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="2"/>
+        <f>B66+E66</f>
         <v>11</v>
       </c>
     </row>
@@ -7345,15 +7349,15 @@
         <v>7</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="0"/>
+        <f>B67+C67</f>
         <v>5</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="1"/>
+        <f>B67+D67</f>
         <v>6</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="2"/>
+        <f>B67+E67</f>
         <v>10</v>
       </c>
     </row>
@@ -7374,15 +7378,15 @@
         <v>7</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" ref="F68:F102" si="3">B68+C68</f>
+        <f>B68+C68</f>
         <v>3</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ref="G68:G102" si="4">B68+D68</f>
+        <f>B68+D68</f>
         <v>4</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" ref="H68:H102" si="5">B68+E68</f>
+        <f>B68+E68</f>
         <v>8</v>
       </c>
     </row>
@@ -7403,15 +7407,15 @@
         <v>7</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="3"/>
+        <f>B69+C69</f>
         <v>3</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="4"/>
+        <f>B69+D69</f>
         <v>4</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="5"/>
+        <f>B69+E69</f>
         <v>8</v>
       </c>
     </row>
@@ -7432,15 +7436,15 @@
         <v>4</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="3"/>
+        <f>B70+C70</f>
         <v>2</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="4"/>
+        <f>B70+D70</f>
         <v>6</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="5"/>
+        <f>B70+E70</f>
         <v>5</v>
       </c>
     </row>
@@ -7461,15 +7465,15 @@
         <v>3</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="3"/>
+        <f>B71+C71</f>
         <v>3</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="4"/>
+        <f>B71+D71</f>
         <v>7</v>
       </c>
       <c r="H71" s="4">
-        <f t="shared" si="5"/>
+        <f>B71+E71</f>
         <v>4</v>
       </c>
     </row>
@@ -7490,15 +7494,15 @@
         <v>3</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="3"/>
+        <f>B72+C72</f>
         <v>4</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="4"/>
+        <f>B72+D72</f>
         <v>8</v>
       </c>
       <c r="H72" s="4">
-        <f t="shared" si="5"/>
+        <f>B72+E72</f>
         <v>5</v>
       </c>
     </row>
@@ -7519,15 +7523,15 @@
         <v>3</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="3"/>
+        <f>B73+C73</f>
         <v>6</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="4"/>
+        <f>B73+D73</f>
         <v>10</v>
       </c>
       <c r="H73" s="4">
-        <f t="shared" si="5"/>
+        <f>B73+E73</f>
         <v>7</v>
       </c>
     </row>
@@ -7548,15 +7552,15 @@
         <v>3</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="3"/>
+        <f>B74+C74</f>
         <v>6</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="4"/>
+        <f>B74+D74</f>
         <v>10</v>
       </c>
       <c r="H74" s="4">
-        <f t="shared" si="5"/>
+        <f>B74+E74</f>
         <v>7</v>
       </c>
     </row>
@@ -7577,15 +7581,15 @@
         <v>7</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="3"/>
+        <f>B75+C75</f>
         <v>7</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="4"/>
+        <f>B75+D75</f>
         <v>8</v>
       </c>
       <c r="H75" s="4">
-        <f t="shared" si="5"/>
+        <f>B75+E75</f>
         <v>12</v>
       </c>
     </row>
@@ -7606,15 +7610,15 @@
         <v>7</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="3"/>
+        <f>B76+C76</f>
         <v>6</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="4"/>
+        <f>B76+D76</f>
         <v>7</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="5"/>
+        <f>B76+E76</f>
         <v>11</v>
       </c>
     </row>
@@ -7635,15 +7639,15 @@
         <v>7</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="3"/>
+        <f>B77+C77</f>
         <v>5</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="4"/>
+        <f>B77+D77</f>
         <v>6</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="5"/>
+        <f>B77+E77</f>
         <v>10</v>
       </c>
     </row>
@@ -7664,15 +7668,15 @@
         <v>7</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="3"/>
+        <f>B78+C78</f>
         <v>4</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="4"/>
+        <f>B78+D78</f>
         <v>5</v>
       </c>
       <c r="H78" s="4">
-        <f t="shared" si="5"/>
+        <f>B78+E78</f>
         <v>9</v>
       </c>
     </row>
@@ -7693,15 +7697,15 @@
         <v>7</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="3"/>
+        <f>B79+C79</f>
         <v>4</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="4"/>
+        <f>B79+D79</f>
         <v>5</v>
       </c>
       <c r="H79" s="4">
-        <f t="shared" si="5"/>
+        <f>B79+E79</f>
         <v>9</v>
       </c>
     </row>
@@ -7722,15 +7726,15 @@
         <v>4</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="3"/>
+        <f>B80+C80</f>
         <v>3</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="4"/>
+        <f>B80+D80</f>
         <v>7</v>
       </c>
       <c r="H80" s="4">
-        <f t="shared" si="5"/>
+        <f>B80+E80</f>
         <v>6</v>
       </c>
     </row>
@@ -7751,15 +7755,15 @@
         <v>4</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="3"/>
+        <f>B81+C81</f>
         <v>3</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="4"/>
+        <f>B81+D81</f>
         <v>7</v>
       </c>
       <c r="H81" s="4">
-        <f t="shared" si="5"/>
+        <f>B81+E81</f>
         <v>6</v>
       </c>
     </row>
@@ -7780,15 +7784,15 @@
         <v>3</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="3"/>
+        <f>B82+C82</f>
         <v>5</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="4"/>
+        <f>B82+D82</f>
         <v>9</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="5"/>
+        <f>B82+E82</f>
         <v>6</v>
       </c>
     </row>
@@ -7809,15 +7813,15 @@
         <v>3</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="3"/>
+        <f>B83+C83</f>
         <v>5</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="4"/>
+        <f>B83+D83</f>
         <v>9</v>
       </c>
       <c r="H83" s="4">
-        <f t="shared" si="5"/>
+        <f>B83+E83</f>
         <v>6</v>
       </c>
     </row>
@@ -7838,15 +7842,15 @@
         <v>3</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="3"/>
+        <f>B84+C84</f>
         <v>7</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="4"/>
+        <f>B84+D84</f>
         <v>11</v>
       </c>
       <c r="H84" s="4">
-        <f t="shared" si="5"/>
+        <f>B84+E84</f>
         <v>8</v>
       </c>
     </row>
@@ -7867,15 +7871,15 @@
         <v>3</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="3"/>
+        <f>B85+C85</f>
         <v>7</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="4"/>
+        <f>B85+D85</f>
         <v>11</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="5"/>
+        <f>B85+E85</f>
         <v>8</v>
       </c>
     </row>
@@ -7896,15 +7900,15 @@
         <v>7</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="3"/>
+        <f>B86+C86</f>
         <v>8</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="4"/>
+        <f>B86+D86</f>
         <v>9</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="5"/>
+        <f>B86+E86</f>
         <v>13</v>
       </c>
     </row>
@@ -7925,15 +7929,15 @@
         <v>7</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="3"/>
+        <f>B87+C87</f>
         <v>7</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="4"/>
+        <f>B87+D87</f>
         <v>8</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="5"/>
+        <f>B87+E87</f>
         <v>12</v>
       </c>
     </row>
@@ -7954,15 +7958,15 @@
         <v>7</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="3"/>
+        <f>B88+C88</f>
         <v>6</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="4"/>
+        <f>B88+D88</f>
         <v>7</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="5"/>
+        <f>B88+E88</f>
         <v>11</v>
       </c>
     </row>
@@ -7983,15 +7987,15 @@
         <v>7</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="3"/>
+        <f>B89+C89</f>
         <v>5</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="4"/>
+        <f>B89+D89</f>
         <v>6</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="5"/>
+        <f>B89+E89</f>
         <v>10</v>
       </c>
     </row>
@@ -8012,15 +8016,15 @@
         <v>4</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="3"/>
+        <f>B90+C90</f>
         <v>4</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="4"/>
+        <f>B90+D90</f>
         <v>8</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="5"/>
+        <f>B90+E90</f>
         <v>7</v>
       </c>
     </row>
@@ -8041,15 +8045,15 @@
         <v>4</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="3"/>
+        <f>B91+C91</f>
         <v>4</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="4"/>
+        <f>B91+D91</f>
         <v>8</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="5"/>
+        <f>B91+E91</f>
         <v>7</v>
       </c>
     </row>
@@ -8070,15 +8074,15 @@
         <v>3</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="3"/>
+        <f>B92+C92</f>
         <v>6</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="4"/>
+        <f>B92+D92</f>
         <v>10</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="5"/>
+        <f>B92+E92</f>
         <v>7</v>
       </c>
     </row>
@@ -8099,15 +8103,15 @@
         <v>3</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="3"/>
+        <f>B93+C93</f>
         <v>6</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="4"/>
+        <f>B93+D93</f>
         <v>10</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="5"/>
+        <f>B93+E93</f>
         <v>7</v>
       </c>
     </row>
@@ -8128,15 +8132,15 @@
         <v>3</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="3"/>
+        <f>B94+C94</f>
         <v>8</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="4"/>
+        <f>B94+D94</f>
         <v>12</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="5"/>
+        <f>B94+E94</f>
         <v>9</v>
       </c>
     </row>
@@ -8157,15 +8161,15 @@
         <v>7</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="3"/>
+        <f>B95+C95</f>
         <v>7</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="4"/>
+        <f>B95+D95</f>
         <v>8</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="5"/>
+        <f>B95+E95</f>
         <v>12</v>
       </c>
     </row>
@@ -8186,15 +8190,15 @@
         <v>7</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="3"/>
+        <f>B96+C96</f>
         <v>6</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="4"/>
+        <f>B96+D96</f>
         <v>7</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" si="5"/>
+        <f>B96+E96</f>
         <v>11</v>
       </c>
     </row>
@@ -8215,15 +8219,15 @@
         <v>7</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="3"/>
+        <f>B97+C97</f>
         <v>5</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="4"/>
+        <f>B97+D97</f>
         <v>6</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" si="5"/>
+        <f>B97+E97</f>
         <v>10</v>
       </c>
     </row>
@@ -8244,15 +8248,15 @@
         <v>7</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="3"/>
+        <f>B98+C98</f>
         <v>5</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="4"/>
+        <f>B98+D98</f>
         <v>6</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" si="5"/>
+        <f>B98+E98</f>
         <v>10</v>
       </c>
     </row>
@@ -8273,15 +8277,15 @@
         <v>4</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="3"/>
+        <f>B99+C99</f>
         <v>5</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="4"/>
+        <f>B99+D99</f>
         <v>9</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" si="5"/>
+        <f>B99+E99</f>
         <v>8</v>
       </c>
     </row>
@@ -8302,15 +8306,15 @@
         <v>4</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="3"/>
+        <f>B100+C100</f>
         <v>5</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="4"/>
+        <f>B100+D100</f>
         <v>9</v>
       </c>
       <c r="H100" s="4">
-        <f t="shared" si="5"/>
+        <f>B100+E100</f>
         <v>8</v>
       </c>
     </row>
@@ -8331,15 +8335,15 @@
         <v>3</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="3"/>
+        <f>B101+C101</f>
         <v>7</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="4"/>
+        <f>B101+D101</f>
         <v>11</v>
       </c>
       <c r="H101" s="4">
-        <f t="shared" si="5"/>
+        <f>B101+E101</f>
         <v>8</v>
       </c>
     </row>
@@ -8360,20 +8364,1447 @@
         <v>3</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="3"/>
+        <f>B102+C102</f>
         <v>7</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="4"/>
+        <f>B102+D102</f>
         <v>11</v>
       </c>
       <c r="H102" s="4">
-        <f t="shared" si="5"/>
+        <f>B102+E102</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection sqref="A1:D101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>8</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+      <c r="D88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>11</v>
+      </c>
+      <c r="D101">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>